--- a/biology/Médecine/Captain_Novolin/Captain_Novolin.xlsx
+++ b/biology/Médecine/Captain_Novolin/Captain_Novolin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Captain Novolin est un jeu vidéo de plates-formes éducatif sur Super Nintendo qui place le joueur dans la peau d'un super-héros atteint de diabète, Captain Novolin.
-Le jeu était sponsorisé par Novo Nordisk, qui fabrique la marque d'insuline Novolin[1].
+Le jeu était sponsorisé par Novo Nordisk, qui fabrique la marque d'insuline Novolin.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Captain Novolin est le seul capable d'arrêter l'extra-terrestre Blubberman et de sauver le maire de DesPins. Il conduit un hors-bord et doit éviter les envahisseurs extra-terrestres qui se sont transformés en "malbouffe". Captain Novolin doit aussi manger des repas sains pour garder son taux de glucose à un niveau qui le garde en bonne santé.
 Le joueur peut gagner des points extra en répondant correctement à des questions à choix multiples sur le diabète (dont les réponses correctes sont données en début de niveau).
@@ -544,9 +558,11 @@
           <t>Réputation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jeu est considéré comme l'un des plus bizarres et plus mauvais jeux vidéo jamais créés[2], en particulier à cause de sa grande difficulté déraisonnable et contrôles difficiles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jeu est considéré comme l'un des plus bizarres et plus mauvais jeux vidéo jamais créés, en particulier à cause de sa grande difficulté déraisonnable et contrôles difficiles.
 Le Joueur du Grenier a testé ce jeu dans l'une de ses émissions.
 </t>
         </is>
